--- a/src/aesa_pbs/data/premise_correction_CO2_flows.xlsx
+++ b/src/aesa_pbs/data/premise_correction_CO2_flows.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ViteksPC\Documents\00-ETH_projects\AESAmethods\src\aesa_pbs\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB6D54E-760E-456C-A418-AD60B8763F30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B589A9CB-DB45-4A59-89B1-566217B3D4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-8400" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -70,10 +70,16 @@
     <t>Carbon dioxide, non-fossil</t>
   </si>
   <si>
-    <t>negative, value depends on category</t>
-  </si>
-  <si>
-    <t>positive, value depends on category</t>
+    <t>Hydrogen</t>
+  </si>
+  <si>
+    <t>air::low population density, long-term</t>
+  </si>
+  <si>
+    <t>kgCOeq/kg</t>
+  </si>
+  <si>
+    <t>unit</t>
   </si>
 </sst>
 </file>
@@ -97,12 +103,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -117,9 +129,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,20 +453,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0533B6E-8C75-4B14-957E-52DDA6452299}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40.59765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -457,82 +476,176 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C2" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C3" s="3">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C9" s="3">
+        <v>11</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="3">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C11" s="3">
+        <v>11</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C12" s="3">
+        <v>11</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>12</v>
+      <c r="C13" s="3">
+        <v>11</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
